--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Worker_details.xlsx" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuille2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -439,6 +439,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -535,21 +536,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +552,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,7 +635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -691,7 +686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -744,7 +739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -793,7 +788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -842,7 +837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -891,7 +886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -940,7 +935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -989,7 +984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -1038,7 +1033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -1087,7 +1082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
@@ -1136,7 +1131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
@@ -1185,7 +1180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -1234,7 +1229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
@@ -1283,7 +1278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -1332,7 +1327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>73</v>
       </c>
@@ -1381,7 +1376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -1430,7 +1425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>77</v>
       </c>
@@ -1479,7 +1474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -1528,7 +1523,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -1577,7 +1572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
@@ -1626,7 +1621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -1675,7 +1670,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>87</v>
       </c>
@@ -1724,7 +1719,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
@@ -1773,7 +1768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>91</v>
       </c>
@@ -1822,7 +1817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>93</v>
       </c>
@@ -1871,7 +1866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
@@ -1920,7 +1915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>97</v>
       </c>
@@ -1973,7 +1968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -2022,7 +2017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
@@ -2071,7 +2066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>105</v>
       </c>
@@ -2120,7 +2115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
@@ -2173,7 +2168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>109</v>
       </c>
@@ -2222,7 +2217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>111</v>
       </c>
@@ -2277,7 +2272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>117</v>
       </c>
@@ -2330,7 +2325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>78</v>
       </c>
@@ -2383,7 +2378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>125</v>
       </c>
@@ -2440,7 +2435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>130</v>
       </c>
@@ -2495,14 +2490,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>